--- a/pxl.xlsx
+++ b/pxl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\600 Work\6. coding\Python\videoct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A324315-0E7E-4107-82AF-7F64CFEED979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33BD75C-D340-4976-94FC-23641FF533E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,97 +45,97 @@
     <t>favicon</t>
   </si>
   <si>
-    <t>https://ckhope.github.io/videoct/9b/110623/p/i/m/linkdgbIipXYmqCIoFlxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/9b1106231GVD</t>
-  </si>
-  <si>
     <t>https://www.pxl.to/images/brand/tiny.png</t>
   </si>
   <si>
     <t>https://www.pxl.to/favicon.ico</t>
   </si>
   <si>
-    <t>https://ckhope.github.io/videoct/9b/110623/q/e/x/linkCWnRUmUoeZClfIDxxx11.html</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/9b/110623/r/d/d/linkAApJTWsfitjXgQxxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/9bh1106231GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctbh/110623/i/q/v/linkJrxyIbYWUoCGnVxxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctbh1106231GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctbh/110623/w/h/j/linkbgNipxHqFJokZhIxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctbh1106232GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctbh/110623/z/h/h/linkFHwZWdUBHzTIxJKxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctbh1106233GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctha/110623/c/l/s/linkQqcIKCPDQRCLEUgxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctha1106231GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctha/110623/t/b/u/linkgzDAouzEWDNccXmxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctha1106232GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctha/110623/x/s/u/linkgpCWdMcAkJhwyknxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctha1106233GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctth/110623/i/p/y/linkEqkcFuHRtCRiNWGxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctth1106231GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctth/110623/t/b/b/linklaQeXEaWuYbNZhlxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctth1106232GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/ctth/110623/y/k/r/linkCkMgXoezunlVLJFxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/ctth1106233GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/kt1/110623/n/t/g/linkyCGTEtFjVyyZRpixxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/kt11106231GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/kt1/110623/o/l/b/linkRUxLmlONbdsbCTExxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/kt11106232GVD</t>
-  </si>
-  <si>
-    <t>https://ckhope.github.io/videoct/kt1/110623/u/b/b/linkJpWVfNtYqFpSZqYxxx11.html</t>
-  </si>
-  <si>
-    <t>pxl.to/kt11106233GVD</t>
+    <t>https://ckhope.github.io/videoct/9b/140623/k/y/c/linkOYLlugUPARaxQjDxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/9b/140623/l/y/s/linkdgbwuWOHauflEAvxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/9b/140623/u/e/d/linkmOBlSYFqyFbRPSkxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctbh/140623/m/r/y/linkGNRnpyaHXwiWEyCxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctbh/140623/o/m/b/linkUgRjxjRISzpOTKzxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctbh/140623/r/n/c/linktqDUpFujXDIwNypxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctha/140623/l/g/c/linkpHBtQiwwsVSVdeVxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctha/140623/m/w/j/linkplFXJuJEhEmAFToxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctha/140623/t/a/e/linkYHBTuzsESQVBhtZxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctth/140623/i/o/q/linkgbKQLhVMxjmrhIGxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctth/140623/k/z/c/linkREkbgseDDKcVbsVxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/ctth/140623/u/u/h/linkyyyWGmnkPFNieLSxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/kt1/140623/i/g/q/linkKitOjhCGstUJlljxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/kt1/140623/o/y/y/linkmhXajEWRAeLNHWtxxx11.html</t>
+  </si>
+  <si>
+    <t>https://ckhope.github.io/videoct/kt1/140623/r/k/f/linkIHRcxpqCqtvyHXOxxx11.html</t>
+  </si>
+  <si>
+    <t>pxl.to/9bgvd_1406231</t>
+  </si>
+  <si>
+    <t>pxl.to/9bhgvd_1406231</t>
+  </si>
+  <si>
+    <t>pxl.to/ctbhgvd_1406231</t>
+  </si>
+  <si>
+    <t>pxl.to/ctbhgvd_1406232</t>
+  </si>
+  <si>
+    <t>pxl.to/ctbhgvd_1406233</t>
+  </si>
+  <si>
+    <t>pxl.to/cthagvd_1406231</t>
+  </si>
+  <si>
+    <t>pxl.to/cthagvd_1406232</t>
+  </si>
+  <si>
+    <t>pxl.to/cthagvd_1406233</t>
+  </si>
+  <si>
+    <t>pxl.to/ctthgvd_1406231</t>
+  </si>
+  <si>
+    <t>pxl.to/ctthgvd_1406232</t>
+  </si>
+  <si>
+    <t>pxl.to/ctthgvd_1406233</t>
+  </si>
+  <si>
+    <t>pxl.to/kt1gvd_1406231</t>
+  </si>
+  <si>
+    <t>pxl.to/kt1gvd_1406232</t>
+  </si>
+  <si>
+    <t>pxl.to/kt1gvd_1406233</t>
   </si>
 </sst>
 </file>
@@ -171,8 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,215 +492,216 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>